--- a/DATA/IsoData/STEIIsoData.xlsx
+++ b/DATA/IsoData/STEIIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">dab7ec21-ea07-4ce6-8206-df58401965ea</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bcbcfc3e-826d-41c2-a463-0e7c5d5ed12b</t>
   </si>
   <si>
     <t xml:space="preserve">STEI.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164658Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c4c174e7-25cd-4476-bb03-8c29562b742f</t>
+    <t xml:space="preserve">20210112T155813Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a7a33886-46fd-4517-8850-3000c7dd39d8</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20181031.1125</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000040890</t>
   </si>
   <si>
-    <t xml:space="preserve">c0399415-ddb9-493b-b99e-24cdd3f7ff93</t>
+    <t xml:space="preserve">fe0fe666-a417-40ed-83a6-59338f5c5763</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20181115.1300</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000040873</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164417Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f5970f59-0599-4b2b-b4f6-40cd46b0f144</t>
+    <t xml:space="preserve">20210112T163640Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0ad3d162-9675-41b6-978c-29677e43340e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20181128.1045</t>
@@ -128,7 +134,7 @@
     <t xml:space="preserve">A00000040856</t>
   </si>
   <si>
-    <t xml:space="preserve">fe3fd1a8-41d9-429e-ad72-5006e16b50ac</t>
+    <t xml:space="preserve">4f9f425f-f752-49ae-8d95-19e23525caaf</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190110.1242</t>
@@ -140,10 +146,10 @@
     <t xml:space="preserve">A00000040711</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T172002Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">298f060e-54f0-472f-8291-66e8130c795c</t>
+    <t xml:space="preserve">20210111T171026Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">458ab701-dbfc-42b8-9cb8-6efdc62caa24</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190403.1006</t>
@@ -155,10 +161,10 @@
     <t xml:space="preserve">A00000040889</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171456Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ad75c39c-6ba4-4b98-b024-b6ade72cae07</t>
+    <t xml:space="preserve">20210112T161114Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28d6bd1c-93e1-42df-bedb-4ef26e4fffd0</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190417.1048</t>
@@ -170,7 +176,7 @@
     <t xml:space="preserve">A00000040707</t>
   </si>
   <si>
-    <t xml:space="preserve">fb19ecfd-0d20-4bc0-a89b-980bfd256339</t>
+    <t xml:space="preserve">d47cf61c-e419-4705-ac21-9e8dac27f692</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190501.1256</t>
@@ -182,10 +188,10 @@
     <t xml:space="preserve">A00000075851</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164258Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3338c848-b865-4f7b-b7d2-0961ff4202c3</t>
+    <t xml:space="preserve">20210112T155656Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">93ff1753-0171-4e31-bf84-3786d94f3217</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190514.1215</t>
@@ -197,7 +203,7 @@
     <t xml:space="preserve">A00000075835</t>
   </si>
   <si>
-    <t xml:space="preserve">50eb113d-200a-47c6-9cd3-4c0912a09263</t>
+    <t xml:space="preserve">85b2759b-5df4-46b7-b789-bb7b6aa6b6b1</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190530.1400</t>
@@ -209,7 +215,7 @@
     <t xml:space="preserve">A00000075850</t>
   </si>
   <si>
-    <t xml:space="preserve">5753a396-cc93-41d3-bc15-584882634a2a</t>
+    <t xml:space="preserve">6f424231-4dcb-4eaa-94c2-26321983f381</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190613.1133</t>
@@ -221,10 +227,10 @@
     <t xml:space="preserve">A00000075801</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164146Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fb1c4041-6c20-4cad-8492-1594b5211c20</t>
+    <t xml:space="preserve">20210112T155200Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63e5f451-aea1-42e3-9a76-ff7c0f19d17d</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190626.1415</t>
@@ -236,7 +242,7 @@
     <t xml:space="preserve">A00000040709</t>
   </si>
   <si>
-    <t xml:space="preserve">9351c4cb-74d0-4884-a887-7c5a62723c25</t>
+    <t xml:space="preserve">a7cf3aee-15b4-48fb-ae93-40f5425d3211</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190709.1403</t>
@@ -248,10 +254,10 @@
     <t xml:space="preserve">A00000040710</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162609Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">de5c4960-5ec3-41cc-923a-d261034bcb50</t>
+    <t xml:space="preserve">20210112T155812Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">672ab6a0-4b1a-4d94-9665-3d137865368b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190723.1036</t>
@@ -263,7 +269,7 @@
     <t xml:space="preserve">A00000040771</t>
   </si>
   <si>
-    <t xml:space="preserve">b9521996-3cad-4556-b298-c7d20325245c</t>
+    <t xml:space="preserve">9715dd0f-0a02-4bf4-a1b7-932e9539a805</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190808.1030</t>
@@ -275,10 +281,10 @@
     <t xml:space="preserve">A00000040803</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164923Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">89bf3319-8d22-48d1-975a-2cca6d5f94b6</t>
+    <t xml:space="preserve">20210112T164008Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d4accd3d-afc1-4504-8d5a-3058bdb38846</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190821.1345</t>
@@ -290,7 +296,7 @@
     <t xml:space="preserve">A00000075834</t>
   </si>
   <si>
-    <t xml:space="preserve">15ccb536-39a1-4566-a4ef-cfe9f1ce7996</t>
+    <t xml:space="preserve">f3668fe2-49bd-4798-b849-d3e6a7c252eb</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190904.1152</t>
@@ -302,10 +308,10 @@
     <t xml:space="preserve">A00000075817</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164722Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6df6361b-ae4f-4b10-a37d-a69eb4cc00cf</t>
+    <t xml:space="preserve">20210112T155443Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13a193fa-e5e0-4e14-86f1-5975c2de3dfe</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20190920.1050</t>
@@ -317,7 +323,7 @@
     <t xml:space="preserve">A00000075800</t>
   </si>
   <si>
-    <t xml:space="preserve">87520907-9258-47cf-b39f-5fedc3552a89</t>
+    <t xml:space="preserve">055438ca-8880-4cea-b02f-bc8364b8fc4e</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20191009.1130</t>
@@ -329,10 +335,10 @@
     <t xml:space="preserve">A00000075849</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T164445Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e2b515df-2b6b-47a3-801d-8de2fce523b4</t>
+    <t xml:space="preserve">20210112T162933Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15ce1d98-f5f3-45c8-b890-4680e69f3ff5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20191017.1035</t>
@@ -344,7 +350,7 @@
     <t xml:space="preserve">A00000075833</t>
   </si>
   <si>
-    <t xml:space="preserve">0d082c96-5266-4119-8b20-5a1710da07f4</t>
+    <t xml:space="preserve">151e838e-76bc-4811-acf7-241cd4323885</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20191029.1420</t>
@@ -356,7 +362,7 @@
     <t xml:space="preserve">A00000075848</t>
   </si>
   <si>
-    <t xml:space="preserve">4c6141c6-aa2d-47b8-80ee-49bb42ecea56</t>
+    <t xml:space="preserve">f7ba6095-9a12-469e-b86a-c58490da63bf</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20191113.1230</t>
@@ -368,10 +374,10 @@
     <t xml:space="preserve">A00000144938</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T162027Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">469abc87-a112-4575-a4fb-49b7c19e2f82</t>
+    <t xml:space="preserve">20210112T155029Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0211d518-d540-4b70-98a9-0baffe8d11b2</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20191121.1337</t>
@@ -383,7 +389,7 @@
     <t xml:space="preserve">A00000075836</t>
   </si>
   <si>
-    <t xml:space="preserve">3bc48a4b-419b-42ad-aa27-fc4ff08a3979</t>
+    <t xml:space="preserve">ae673920-d2f8-43b3-be3b-4a8f8d9decde</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20191209.1419</t>
@@ -395,10 +401,10 @@
     <t xml:space="preserve">A00000079213</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T161752Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94f7e696-81bc-401b-832b-e63290bf2827</t>
+    <t xml:space="preserve">20210112T154636Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7eca48c2-e8ef-44f8-a432-7e2bb0b00523</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20191219.1440</t>
@@ -410,7 +416,7 @@
     <t xml:space="preserve">A00000144937</t>
   </si>
   <si>
-    <t xml:space="preserve">7894e8b6-a574-4baa-a263-fdc14b5299dd</t>
+    <t xml:space="preserve">c51b1322-ca54-422c-866d-0e7dfb9aae4b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20200108.1338</t>
@@ -422,10 +428,13 @@
     <t xml:space="preserve">A00000075816</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T171853Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ca3247c7-864f-4c91-a649-9b2e18fa6459</t>
+    <t xml:space="preserve">20210112T160510Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROVISIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2c0e2529-6754-4763-b25c-08ed2b9050d4</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20200122.1053</t>
@@ -437,7 +446,7 @@
     <t xml:space="preserve">A00000075799</t>
   </si>
   <si>
-    <t xml:space="preserve">e1d62664-8cb9-4892-adcd-aa477aa0586f</t>
+    <t xml:space="preserve">eac198ea-c28e-4ba0-b28a-8a99008c2b43</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.STEI.20200206.1100</t>
@@ -449,7 +458,157 @@
     <t xml:space="preserve">A00000075837</t>
   </si>
   <si>
-    <t xml:space="preserve">20200601T132755Z</t>
+    <t xml:space="preserve">20210112T161249Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57db04e7-5840-4855-90e3-7036091ee390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200219.1245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200219.1245.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000075819</t>
+  </si>
+  <si>
+    <t xml:space="preserve">72fc4cd6-bebc-41ef-a932-44abd1c6cdd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200304.1115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200304.1115.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000075832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very tiny volume less than 0.5 ml try best to analyze the sample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T164034Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c6f8e5ce-7ea0-450a-8505-76b5c3d99ede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200319.1153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200319.1153.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000075798</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03e2cd6a-f471-4756-b749-f22aea20f0f9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200624.1003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200624.1003.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000075797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T160820Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">62898a3d-07b2-4d14-9a5c-ab1d08116595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200707.1057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200707.1057.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000075847</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T162351Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83bfc4ed-82a2-4ad1-8e23-24f47eb38b70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200723.1114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200723.1114.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000203245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172b3979-9cbc-4b1c-9855-6b5ebf22d241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200806.1308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200806.1308.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000203263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210111T192228Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9497e65f-0536-44a8-a257-915c1515c4eb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200819.1714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200819.1714.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000144928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e08f33a5-1302-4dff-af30-cfeaba2386c3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200903.1113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200903.1113.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000204565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20210112T155802Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a308d056-3694-4d67-8616-7bf4256f0f57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200915.1023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200915.1023.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000204564</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b25c61ee-ebd4-4e8f-8ba2-61606d9541dd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200929.1348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WDP.STEI.20200929.1348.ISO.TEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A00000203277</t>
   </si>
 </sst>
 </file>
@@ -787,7 +946,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -841,23 +1000,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43375.7986111111</v>
@@ -878,35 +1040,38 @@
         <v>0.258</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43468.7916666667</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43391.7291666667</v>
@@ -927,35 +1092,38 @@
         <v>0.159</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43468.7916666667</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43404.6909722222</v>
@@ -976,35 +1144,38 @@
         <v>0.235</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43468.7916666667</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43419.79375</v>
@@ -1025,35 +1196,38 @@
         <v>0.175</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43468.7916666667</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43454.8458333333</v>
@@ -1074,35 +1248,38 @@
         <v>0.076</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43537.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43545.6388888889</v>
@@ -1123,35 +1300,38 @@
         <v>0.352</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43592.75</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>43558.6319444444</v>
@@ -1172,35 +1352,38 @@
         <v>0.384</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="n">
         <v>43655.75</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8"/>
       <c r="Q8" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>43572.6597222222</v>
@@ -1221,35 +1404,38 @@
         <v>0.345</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>43655.75</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P9"/>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>43586.7506944444</v>
@@ -1270,35 +1456,38 @@
         <v>0.164</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="n">
         <v>43655.75</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10"/>
       <c r="Q10" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>43599.7222222222</v>
@@ -1319,35 +1508,38 @@
         <v>0.34</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="n">
         <v>43655.75</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P11"/>
       <c r="Q11" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>43615.7951388889</v>
@@ -1368,35 +1560,38 @@
         <v>0.129</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="n">
         <v>43727.75</v>
       </c>
       <c r="O12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P12"/>
       <c r="Q12" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>43629.6965277778</v>
@@ -1417,35 +1612,38 @@
         <v>0.137</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="n">
         <v>43727.75</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13"/>
       <c r="Q13" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>43642.8041666667</v>
@@ -1466,35 +1664,38 @@
         <v>0.157</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N14" s="1" t="n">
         <v>43727.75</v>
       </c>
       <c r="O14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P14"/>
       <c r="Q14" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>43655.7986111111</v>
@@ -1515,35 +1716,38 @@
         <v>0.165</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="n">
         <v>43727.75</v>
       </c>
       <c r="O15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P15"/>
       <c r="Q15" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>43669.6527777778</v>
@@ -1564,35 +1768,38 @@
         <v>0.116</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" s="1" t="n">
         <v>43727.75</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16"/>
       <c r="Q16" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>43685.6506944444</v>
@@ -1613,35 +1820,38 @@
         <v>0.055</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N17" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P17"/>
       <c r="Q17" t="s">
-        <v>87</v>
+        <v>89</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>43698.7881944444</v>
@@ -1662,35 +1872,38 @@
         <v>0.102</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N18" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P18"/>
       <c r="Q18" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>43712.7118055556</v>
@@ -1711,35 +1924,38 @@
         <v>0.092</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N19" s="1" t="n">
         <v>43795.7916666667</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19"/>
       <c r="Q19" t="s">
-        <v>96</v>
+        <v>98</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>43728.6666666667</v>
@@ -1760,35 +1976,38 @@
         <v>0.193</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N20" s="1" t="n">
         <v>43846.7916666667</v>
       </c>
       <c r="O20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P20"/>
       <c r="Q20" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>43747.6909722222</v>
@@ -1809,35 +2028,38 @@
         <v>0.287</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N21" s="1" t="n">
         <v>43846.7916666667</v>
       </c>
       <c r="O21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P21"/>
       <c r="Q21" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>43755.6527777778</v>
@@ -1858,35 +2080,38 @@
         <v>0.057</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N22" s="1" t="n">
         <v>43846.7916666667</v>
       </c>
       <c r="O22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P22"/>
       <c r="Q22" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>43767.8159722222</v>
@@ -1907,35 +2132,38 @@
         <v>0.162</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N23" s="1" t="n">
         <v>43846.7916666667</v>
       </c>
       <c r="O23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P23"/>
       <c r="Q23" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>43782.8263888889</v>
@@ -1956,35 +2184,38 @@
         <v>0.094</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N24" s="1" t="n">
         <v>43846.7916666667</v>
       </c>
       <c r="O24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P24"/>
       <c r="Q24" t="s">
-        <v>118</v>
+        <v>120</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>43790.8208333333</v>
@@ -2005,35 +2236,38 @@
         <v>0.145</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N25" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P25"/>
       <c r="Q25" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F26" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>43808.8541666667</v>
@@ -2054,35 +2288,38 @@
         <v>0.293</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N26" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P26"/>
       <c r="Q26" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>43818.8645833333</v>
@@ -2103,35 +2340,38 @@
         <v>0.151</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N27" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P27"/>
       <c r="Q27" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="R27" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>43838.8180555556</v>
@@ -2152,35 +2392,38 @@
         <v>0.08</v>
       </c>
       <c r="M28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N28" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P28"/>
       <c r="Q28" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="R28" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>43852.7090277778</v>
@@ -2201,17 +2444,594 @@
         <v>0.107</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N29" s="1" t="n">
         <v>43895.7916666667</v>
       </c>
       <c r="O29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P29"/>
       <c r="Q29" t="s">
-        <v>145</v>
+        <v>148</v>
+      </c>
+      <c r="R29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>43867.7152777778</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>43880.78125</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-23.561</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-187.823</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="M30" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>44001.75</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30"/>
+      <c r="Q30" t="s">
+        <v>148</v>
+      </c>
+      <c r="R30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+      <c r="F31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>43880.7847222222</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>43894.71875</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-10.72</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-113.721</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.148</v>
+      </c>
+      <c r="M31" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>44006.75</v>
+      </c>
+      <c r="O31" t="s">
+        <v>24</v>
+      </c>
+      <c r="P31" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>158</v>
+      </c>
+      <c r="R31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" t="s">
+        <v>160</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="s">
+        <v>161</v>
+      </c>
+      <c r="F32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>43894.7236111111</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>43909.7034722222</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-13.065</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-96.765</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>44006.75</v>
+      </c>
+      <c r="O32" t="s">
+        <v>24</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32" t="s">
+        <v>158</v>
+      </c>
+      <c r="R32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" t="s">
+        <v>166</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>43994.8090277778</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>44006.6270833333</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-9.285</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-68.319</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.071</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="M33" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>44097.75</v>
+      </c>
+      <c r="O33" t="s">
+        <v>24</v>
+      </c>
+      <c r="P33"/>
+      <c r="Q33" t="s">
+        <v>167</v>
+      </c>
+      <c r="R33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>44006.6319444444</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>44019.6645833333</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-4.668</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-32.313</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="M34" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>44097.75</v>
+      </c>
+      <c r="O34" t="s">
+        <v>24</v>
+      </c>
+      <c r="P34"/>
+      <c r="Q34" t="s">
+        <v>172</v>
+      </c>
+      <c r="R34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>173</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35" t="s">
+        <v>175</v>
+      </c>
+      <c r="F35" t="s">
+        <v>176</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>44019.6680555556</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>44035.6763888889</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-6.383</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-38.871</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.412</v>
+      </c>
+      <c r="M35" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>44097.75</v>
+      </c>
+      <c r="O35" t="s">
+        <v>24</v>
+      </c>
+      <c r="P35"/>
+      <c r="Q35" t="s">
+        <v>172</v>
+      </c>
+      <c r="R35" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="1" t="n">
+        <v>44035.68125</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>44049.7555555556</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-4.362</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-20.888</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>44097.75</v>
+      </c>
+      <c r="O36" t="s">
+        <v>24</v>
+      </c>
+      <c r="P36"/>
+      <c r="Q36" t="s">
+        <v>181</v>
+      </c>
+      <c r="R36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>182</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" t="s">
+        <v>185</v>
+      </c>
+      <c r="G37" s="1" t="n">
+        <v>44049.7604166667</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>44062.9263888889</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-5.517</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-35.877</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="M37" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>44172.7916666667</v>
+      </c>
+      <c r="O37" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37"/>
+      <c r="Q37" t="s">
+        <v>181</v>
+      </c>
+      <c r="R37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" t="s">
+        <v>187</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38" t="s">
+        <v>188</v>
+      </c>
+      <c r="F38" t="s">
+        <v>189</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>44062.9326388889</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>44077.6756944444</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-6.898</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-45.024</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M38" t="s">
+        <v>23</v>
+      </c>
+      <c r="N38" s="1" t="n">
+        <v>44172.7916666667</v>
+      </c>
+      <c r="O38" t="s">
+        <v>24</v>
+      </c>
+      <c r="P38"/>
+      <c r="Q38" t="s">
+        <v>190</v>
+      </c>
+      <c r="R38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F39" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>44077.6805555556</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>44089.6409722222</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-9.021</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-57.729</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
+      </c>
+      <c r="N39" s="1" t="n">
+        <v>44172.7916666667</v>
+      </c>
+      <c r="O39" t="s">
+        <v>24</v>
+      </c>
+      <c r="P39"/>
+      <c r="Q39" t="s">
+        <v>190</v>
+      </c>
+      <c r="R39" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>196</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>44089.6451388889</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>44103.7833333333</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-8.413</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-51.365</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="M40" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="1" t="n">
+        <v>44172.7916666667</v>
+      </c>
+      <c r="O40" t="s">
+        <v>24</v>
+      </c>
+      <c r="P40"/>
+      <c r="Q40" t="s">
+        <v>190</v>
+      </c>
+      <c r="R40" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
